--- a/downloaded_files/SBES251_Tutorial-35363.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35363.xlsx
@@ -156,7 +156,7 @@
     <x:t>زياد خالد عزت عبد المنعم</x:t>
   </x:si>
   <x:si>
-    <x:t>Zeyad khaled ezzat abdel monem</x:t>
+    <x:t>Zeyad khaled Ezzat Abdel Moniem</x:t>
   </x:si>
   <x:si>
     <x:t>4240018</x:t>

--- a/downloaded_files/SBES251_Tutorial-35363.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35363.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1230002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم محمد عبدالمجيد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ebrahim Mohamed Abdel Magied Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>2210002</x:t>
   </x:si>
   <x:si>
@@ -51,15 +42,6 @@
     <x:t>AHMED HASSAN BAHR YOUSSEF MAHMOUD</x:t>
   </x:si>
   <x:si>
-    <x:t>1230151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد حمزة يونس حمزة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmed hamza younes hamza</x:t>
-  </x:si>
-  <x:si>
     <x:t>4240043</x:t>
   </x:si>
   <x:si>
@@ -78,13 +60,13 @@
     <x:t>Ahmed attay kamal kamalelden</x:t>
   </x:si>
   <x:si>
-    <x:t>4240006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسراء محمد ابراهيم حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Esraa Mohamed Ibrahim Hassan</x:t>
+    <x:t>4200368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد علي كمال عويس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ali Kamal Ewis</x:t>
   </x:si>
   <x:si>
     <x:t>4240009</x:t>
@@ -132,6 +114,15 @@
     <x:t>Habiba Walid Ahmed Ibraheem Hammouda</x:t>
   </x:si>
   <x:si>
+    <x:t>4240015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد مصطفى محمد عبدالرحمن بيومى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Mostafa Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230145</x:t>
   </x:si>
   <x:si>
@@ -141,15 +132,6 @@
     <x:t>Rim Khaled Mahmoud Abdelfatah Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210351</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد أحمد عبدالحميد ابراهيم النادى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Ahmed Abdelhamid Ibrahim Elnady</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210009</x:t>
   </x:si>
   <x:si>
@@ -168,24 +150,6 @@
     <x:t>Ziad Mohamed Farghel Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>4230195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى محمد سعد قايتباى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Mohamed Saad Kaitbay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سهيله احمد على حنفى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sohaila Ahmed Aly Hanafy Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220121</x:t>
   </x:si>
   <x:si>
@@ -204,15 +168,6 @@
     <x:t>Ali Mahmoud Ahmed Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1230070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علياء محمد عبدالغني محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alyaa Mohamed Abdelghani</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210368</x:t>
   </x:si>
   <x:si>
@@ -249,15 +204,6 @@
     <x:t>Ghazzl Hossameldin Radwan Asar</x:t>
   </x:si>
   <x:si>
-    <x:t>4230162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فرح احمد كمال حامد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farah Ahmed Kamal Hamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210287</x:t>
   </x:si>
   <x:si>
@@ -312,15 +258,6 @@
     <x:t>Malak fathy saad fathy</x:t>
   </x:si>
   <x:si>
-    <x:t>1230265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك محمد حسين محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Malak Mohamed Hussein Mohamed </x:t>
-  </x:si>
-  <x:si>
     <x:t>1220086</x:t>
   </x:si>
   <x:si>
@@ -355,15 +292,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Youmna Mahmoud Abo Alfotoh </x:t>
-  </x:si>
-  <x:si>
-    <x:t>2220010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف حسانين احمد على السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hassanein Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1200320</x:t>
@@ -497,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -807,7 +735,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.060625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="52.460625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -888,7 +816,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45907.4608857639</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -920,7 +848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4608857639</x:v>
+        <x:v>45907.6685705208</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -952,7 +880,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6703438657</x:v>
+        <x:v>45907.6651039005</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -984,7 +912,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6685705208</x:v>
+        <x:v>45927.4158216088</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1016,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651039005</x:v>
+        <x:v>45907.6817684028</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1048,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6667517361</x:v>
+        <x:v>45907.4145908912</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1080,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6817684028</x:v>
+        <x:v>45907.4154093403</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1112,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4145908912</x:v>
+        <x:v>45907.4161202546</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1144,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45906.6645066782</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1176,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45927.4698060185</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1208,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6645066782</x:v>
+        <x:v>45907.6672243056</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1240,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6672243056</x:v>
+        <x:v>45906.6644150463</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1272,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6648645833</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1304,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6644150463</x:v>
+        <x:v>45906.415122419</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1336,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1368,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.665363044</x:v>
+        <x:v>45906.6678304745</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1400,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4149654745</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1432,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1464,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1496,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.414927581</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1528,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6678304745</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1560,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1592,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1624,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1656,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1688,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1720,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1752,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1784,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1816,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1848,7 +1776,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45912.3048273958</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1866,262 +1794,6 @@
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
     </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.4491407407</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.4169562847</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.6671912037</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.415450081</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.4152314005</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45906.4152550116</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45912.3048273958</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2134,9 +1806,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Entrepreneurship in Healthcare Industry (SBES251) Location : [18201]18201-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/SBES251_Tutorial-35363.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35363.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,15 +87,6 @@
     <x:t>Basel Bahaa Alsayed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جميله حاتم السيد احمد محمد على فرج</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gamila Hatem ElSayed Ahmed Mohamed Aly Farag</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230026</x:t>
   </x:si>
   <x:si>
@@ -177,15 +168,6 @@
     <x:t>Omar Essam Mahrous Mabrouk</x:t>
   </x:si>
   <x:si>
-    <x:t>4240032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد حمزه عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Hamza Osman</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210267</x:t>
   </x:si>
   <x:si>
@@ -283,15 +265,6 @@
   </x:si>
   <x:si>
     <x:t>Yehia Zakria Fawzi Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يمني محمود أبو الفتوح عويضه</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Youmna Mahmoud Abo Alfotoh </x:t>
   </x:si>
   <x:si>
     <x:t>1200320</x:t>
@@ -425,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1008,7 +981,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45907.4161202546</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1040,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45906.6645066782</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6645066782</x:v>
+        <x:v>45927.4698060185</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4698060185</x:v>
+        <x:v>45907.6672243056</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6672243056</x:v>
+        <x:v>45906.6644150463</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6644150463</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45906.415122419</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45906.6678304745</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6678304745</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45912.3048273958</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1697,102 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.4152314005</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45912.3048273958</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES251_Tutorial-35363.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35363.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>AHMED HASSAN BAHR YOUSSEF MAHMOUD</x:t>
   </x:si>
   <x:si>
-    <x:t>4240043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد رضا احمد عبدالعليم حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Reda Ahmed Abdelaleem Hussain</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230011</x:t>
   </x:si>
   <x:si>
@@ -132,15 +123,6 @@
     <x:t>Zeyad khaled Ezzat Abdel Moniem</x:t>
   </x:si>
   <x:si>
-    <x:t>4240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد محمد فرغل محمد فرغل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Mohamed Farghel Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220121</x:t>
   </x:si>
   <x:si>
@@ -220,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Tamer Mostafa Alsaid Abualfadl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد جميل اسماعيل اسماعيل العباسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Jameel Ismail Ismail AlAbasy</x:t>
   </x:si>
   <x:si>
     <x:t>1220209</x:t>
@@ -398,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -821,7 +794,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6685705208</x:v>
+        <x:v>45907.6651039005</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -853,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6651039005</x:v>
+        <x:v>45927.4158216088</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -885,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4158216088</x:v>
+        <x:v>45907.6817684028</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -917,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6817684028</x:v>
+        <x:v>45907.4145908912</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4145908912</x:v>
+        <x:v>45907.4161202546</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45906.6645066782</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6645066782</x:v>
+        <x:v>45927.4698060185</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4698060185</x:v>
+        <x:v>45907.6672243056</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6672243056</x:v>
+        <x:v>45906.6644150463</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6644150463</x:v>
+        <x:v>45906.415122419</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45906.6678304745</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6678304745</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45912.3048273958</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1574,102 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.415450081</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45912.3048273958</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES251_Tutorial-35363.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35363.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,24 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>2210002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد حسن بحر يوسف محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AHMED HASSAN BAHR YOUSSEF MAHMOUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عطاى كمال كمال الدين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed attay kamal kamalelden</x:t>
-  </x:si>
-  <x:si>
     <x:t>4200368</x:t>
   </x:si>
   <x:si>
@@ -60,15 +42,6 @@
     <x:t>Ahmed Ali Kamal Ewis</x:t>
   </x:si>
   <x:si>
-    <x:t>4240009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اياد عادل محمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eyad Adel Mohamed Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220039</x:t>
   </x:si>
   <x:si>
@@ -112,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Rim Khaled Mahmoud Abdelfatah Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد خالد عزت عبد المنعم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeyad khaled Ezzat Abdel Moniem</x:t>
   </x:si>
   <x:si>
     <x:t>4220121</x:t>
@@ -371,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -762,7 +726,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4608857639</x:v>
+        <x:v>45927.4158216088</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -794,7 +758,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6651039005</x:v>
+        <x:v>45907.4145908912</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -826,7 +790,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4158216088</x:v>
+        <x:v>45907.4161202546</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -858,7 +822,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6817684028</x:v>
+        <x:v>45906.6645066782</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4145908912</x:v>
+        <x:v>45927.4698060185</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45907.6672243056</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6645066782</x:v>
+        <x:v>45906.415122419</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4698060185</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6672243056</x:v>
+        <x:v>45906.6678304745</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6644150463</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6678304745</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1366,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45912.3048273958</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1419,134 +1383,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.6671912037</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45907.415450081</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45912.3048273958</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES251_Tutorial-35363.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35363.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Rim Khaled Mahmoud Abdelfatah Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاليه طارق عمر طلبه زايد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230338</x:t>
@@ -335,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -918,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45929.605106331</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6678304745</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45912.3048273958</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1351,38 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45912.3048273958</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
